--- a/GenerateYearlyReportPerformer/Data/Temp/Yearly-Report-2020-DE325476.xlsx
+++ b/GenerateYearlyReportPerformer/Data/Temp/Yearly-Report-2020-DE325476.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <x:si>
     <x:t>InvoiceNumber</x:t>
   </x:si>
@@ -37,289 +37,319 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>474872</x:t>
+    <x:t>178733</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Professional Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>215525</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>258630</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-01-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>361916</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT Support</x:t>
+  </x:si>
+  <x:si>
+    <x:t>114641</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22928.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>137569</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>712645</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beverages and Catering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>113599</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22719.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>136319</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EUR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>470620</x:t>
+  </x:si>
+  <x:si>
+    <x:t>230252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46050.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>276302</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>563554</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waste management services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>263311</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52662.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>315973</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-05-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>989678</x:t>
+  </x:si>
+  <x:si>
+    <x:t>173270</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34654</x:t>
+  </x:si>
+  <x:si>
+    <x:t>207924</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>317429</x:t>
+  </x:si>
+  <x:si>
+    <x:t>188429</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37685.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>226115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-07-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>613418</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16220</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19464</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-07-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138720</x:t>
+  </x:si>
+  <x:si>
+    <x:t>183529</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36705.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>220235</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>675820</x:t>
   </x:si>
   <x:si>
     <x:t>Various paper supplies</x:t>
   </x:si>
   <x:si>
-    <x:t>188814</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37762.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>226577</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EUR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-01-02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>817258</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waste management services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>271145</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54229</x:t>
-  </x:si>
-  <x:si>
-    <x:t>325374</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-02-21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>723479</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Professional Services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>149258</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29851.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>179110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-03-27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>744723</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beverages and Catering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>191434</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38286.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>229721</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-03-16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>774413</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35951</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7190.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43141.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RON</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-04-14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>247382</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23069</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4613.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27682.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-04-22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>928814</x:t>
-  </x:si>
-  <x:si>
-    <x:t>81326</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16265.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>97591.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-05-21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>559539</x:t>
-  </x:si>
-  <x:si>
-    <x:t>87373</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17474.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>104848</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-05-14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>571209</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41340</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8268</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49608</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-05-25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>454962</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73749</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14749.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88498.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-06-12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>209992</x:t>
+    <x:t>260890</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>313068</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128896</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23071</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4614.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27685.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-09-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>197912</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12000.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72002.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-10-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>808077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>247690</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49538</x:t>
+  </x:si>
+  <x:si>
+    <x:t>297228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-10-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>877530</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6435</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7722</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-10-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>954155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>274167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54833.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>329000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-10-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>174461</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66492</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13298.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79790.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-11-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>525692</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31395</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6279</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37674</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-11-22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>252509</x:t>
   </x:si>
   <x:si>
     <x:t>Concierge Services</x:t>
   </x:si>
   <x:si>
-    <x:t>23103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4620.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27723.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-09-18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>126441</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12223.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73342.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-09-21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>421945</x:t>
-  </x:si>
-  <x:si>
-    <x:t>169400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33880</x:t>
-  </x:si>
-  <x:si>
-    <x:t>203280</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-11-21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>372354</x:t>
-  </x:si>
-  <x:si>
-    <x:t>138640</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27728</x:t>
-  </x:si>
-  <x:si>
-    <x:t>166368</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-11-22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>452347</x:t>
-  </x:si>
-  <x:si>
-    <x:t>114700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22940</x:t>
-  </x:si>
-  <x:si>
-    <x:t>137640</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-11-07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>883451</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT Support</x:t>
-  </x:si>
-  <x:si>
-    <x:t>180502</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36100.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>216602</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-11-18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>246186</x:t>
-  </x:si>
-  <x:si>
-    <x:t>256234</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51246.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>307481</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-12-10</x:t>
+    <x:t>77982</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15596.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93578.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-12-12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>702436</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92989</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18597.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111587</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-12-09</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -670,7 +700,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G18"/>
+  <x:dimension ref="A1:G20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -739,30 +769,30 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="D4" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s">
+      <x:c r="E4" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="s">
+      <x:c r="F4" s="0" t="s">
         <x:v>25</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>12</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
         <x:v>26</x:v>
@@ -773,88 +803,88 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="D5" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="s">
+      <x:c r="E5" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="F5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="D6" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
+      <x:c r="E6" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="s">
+      <x:c r="F6" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="F6" s="0" t="s">
+      <x:c r="G6" s="0" t="s">
         <x:v>38</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="D7" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
+      <x:c r="E7" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="s">
+      <x:c r="F7" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
         <x:v>43</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="D8" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="s">
+      <x:c r="E8" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="E8" s="0" t="s">
+      <x:c r="F8" s="0" t="s">
         <x:v>48</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>32</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
         <x:v>49</x:v>
@@ -865,7 +895,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
         <x:v>51</x:v>
@@ -877,7 +907,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
         <x:v>54</x:v>
@@ -888,7 +918,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
         <x:v>56</x:v>
@@ -900,7 +930,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
         <x:v>59</x:v>
@@ -911,30 +941,30 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
         <x:v>67</x:v>
@@ -946,7 +976,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
         <x:v>70</x:v>
@@ -957,7 +987,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
         <x:v>72</x:v>
@@ -969,7 +999,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
         <x:v>75</x:v>
@@ -980,7 +1010,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
         <x:v>77</x:v>
@@ -992,7 +1022,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
         <x:v>80</x:v>
@@ -1003,7 +1033,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
         <x:v>82</x:v>
@@ -1015,7 +1045,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
         <x:v>85</x:v>
@@ -1026,7 +1056,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
         <x:v>87</x:v>
@@ -1038,7 +1068,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
         <x:v>90</x:v>
@@ -1049,45 +1079,91 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="C17" s="0" t="s">
+      <x:c r="D17" s="0" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="D17" s="0" t="s">
+      <x:c r="E17" s="0" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="E17" s="0" t="s">
+      <x:c r="F17" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
         <x:v>95</x:v>
-      </x:c>
-      <x:c r="F17" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7">
       <x:c r="A18" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="B18" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C18" s="0" t="s">
+      <x:c r="D18" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="D18" s="0" t="s">
+      <x:c r="E18" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="E18" s="0" t="s">
+      <x:c r="F18" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="F18" s="0" t="s">
+    </x:row>
+    <x:row r="19" spans="1:7">
+      <x:c r="A19" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="G18" s="0" t="s">
-        <x:v>101</x:v>
+      <x:c r="G19" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:7">
+      <x:c r="A20" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>111</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
